--- a/Database/Italy_2014_SUT.xlsx
+++ b/Database/Italy_2014_SUT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC240EC-A3C7-4E3E-961B-7987FD61B8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUT" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SUT!$B$7:$D$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -20,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="201">
   <si>
     <t>Margins</t>
   </si>
@@ -569,12 +576,6 @@
     <t>GDP</t>
   </si>
   <si>
-    <t>Other sectors</t>
-  </si>
-  <si>
-    <t>Mining &amp; quarrying</t>
-  </si>
-  <si>
     <t>Food, beverages &amp; tobacco</t>
   </si>
   <si>
@@ -596,19 +597,52 @@
     <t>Metals</t>
   </si>
   <si>
-    <t>Other industry</t>
-  </si>
-  <si>
     <t>Machinery</t>
   </si>
   <si>
     <t>Transport equipment</t>
   </si>
+  <si>
+    <t>Agriculture &amp; fishing</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>High-tech</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Wholesale &amp; retail</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Finance &amp; Consultancy</t>
+  </si>
+  <si>
+    <t>Research &amp; Education</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -676,7 +710,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,7 +731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,7 +773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,9 +806,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,6 +858,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,98 +1050,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EV306"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="DX7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="EG9" sqref="EG9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="52" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="61" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="80" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="90" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="101" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="109" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="52" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="61" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="80" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="90" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="101" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="109" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="11" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="113" max="115" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="118" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="120" max="123" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="115" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="123" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="131" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="135" max="136" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="142" max="144" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="145" max="147" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="144" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="147" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1485,7 +1553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="str">
         <v>Sectors</v>
@@ -1893,7 +1961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="E3" s="1" t="str">
         <v>Macro Sectors</v>
@@ -2097,16 +2165,16 @@
         <v>Margins</v>
       </c>
       <c r="BT3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Agriculture &amp; fishing</v>
       </c>
       <c r="BU3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Agriculture &amp; fishing</v>
       </c>
       <c r="BV3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Agriculture &amp; fishing</v>
       </c>
       <c r="BW3" s="1" t="str">
-        <v>Mining &amp; quarrying</v>
+        <v>Mining</v>
       </c>
       <c r="BX3" s="1" t="str">
         <v>Food, beverages &amp; tobacco</v>
@@ -2145,10 +2213,10 @@
         <v>Metals</v>
       </c>
       <c r="CJ3" s="1" t="str">
-        <v>Other industry</v>
+        <v>High-tech</v>
       </c>
       <c r="CK3" s="1" t="str">
-        <v>Other industry</v>
+        <v>High-tech</v>
       </c>
       <c r="CL3" s="1" t="str">
         <v>Machinery</v>
@@ -2160,136 +2228,136 @@
         <v>Transport equipment</v>
       </c>
       <c r="CO3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Other</v>
       </c>
       <c r="CP3" s="1" t="str">
-        <v>Other industry</v>
+        <v>High-tech</v>
       </c>
       <c r="CQ3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Utilities</v>
       </c>
       <c r="CR3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Utilities</v>
       </c>
       <c r="CS3" s="1" t="str">
-        <v>Other industry</v>
+        <v>Utilities</v>
       </c>
       <c r="CT3" s="1" t="str">
         <v>Construction</v>
       </c>
       <c r="CU3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Wholesale &amp; retail</v>
       </c>
       <c r="CV3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Wholesale &amp; retail</v>
       </c>
       <c r="CW3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Wholesale &amp; retail</v>
       </c>
       <c r="CX3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="CY3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="CZ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="DA3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="DB3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Transport</v>
       </c>
       <c r="DC3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DD3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DE3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DF3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>IT</v>
       </c>
       <c r="DG3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>IT</v>
       </c>
       <c r="DH3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DI3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DJ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DK3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DL3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DM3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DN3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DO3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DP3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DQ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DR3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="DS3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="DT3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="DU3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Finance &amp; Consultancy</v>
       </c>
       <c r="DV3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="DW3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Research &amp; Education</v>
       </c>
       <c r="DX3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Health</v>
       </c>
       <c r="DY3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Health</v>
       </c>
       <c r="DZ3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="EA3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="EB3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Leisure</v>
       </c>
       <c r="EC3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>IT</v>
       </c>
       <c r="ED3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="EE3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="EF3" s="1" t="str">
-        <v>Other sectors</v>
+        <v>Other</v>
       </c>
       <c r="EG3" s="1" t="s">
         <v>175</v>
@@ -2301,7 +2369,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2712,7 +2780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3114,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>166</v>
       </c>
@@ -3131,14 +3199,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3547,14 +3615,14 @@
         <v>5112.7299999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3963,14 +4031,14 @@
         <v>90.25</v>
       </c>
     </row>
-    <row r="9" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4379,14 +4447,14 @@
         <v>203.33</v>
       </c>
     </row>
-    <row r="10" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4795,14 +4863,14 @@
         <v>1102.3499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5211,14 +5279,14 @@
         <v>27623.77</v>
       </c>
     </row>
-    <row r="12" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5627,14 +5695,14 @@
         <v>42839.5</v>
       </c>
     </row>
-    <row r="13" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -6043,14 +6111,14 @@
         <v>1541.12</v>
       </c>
     </row>
-    <row r="14" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -6459,14 +6527,14 @@
         <v>6311.77</v>
       </c>
     </row>
-    <row r="15" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6875,14 +6943,14 @@
         <v>53.28</v>
       </c>
     </row>
-    <row r="16" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -7291,14 +7359,14 @@
         <v>13163.85</v>
       </c>
     </row>
-    <row r="17" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -7707,14 +7775,14 @@
         <v>24694.14</v>
       </c>
     </row>
-    <row r="18" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -8123,14 +8191,14 @@
         <v>18692.7</v>
       </c>
     </row>
-    <row r="19" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -8539,14 +8607,14 @@
         <v>13929.32</v>
       </c>
     </row>
-    <row r="20" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -8955,14 +9023,14 @@
         <v>9144.56</v>
       </c>
     </row>
-    <row r="21" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -9371,14 +9439,14 @@
         <v>24713.919999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -9787,14 +9855,14 @@
         <v>17957.810000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -10203,14 +10271,14 @@
         <v>10890.94</v>
       </c>
     </row>
-    <row r="24" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -10619,14 +10687,14 @@
         <v>20494.240000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -11035,14 +11103,14 @@
         <v>73453.75</v>
       </c>
     </row>
-    <row r="26" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -11451,14 +11519,14 @@
         <v>27134.06</v>
       </c>
     </row>
-    <row r="27" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -11867,14 +11935,14 @@
         <v>12429.13</v>
       </c>
     </row>
-    <row r="28" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -12283,14 +12351,14 @@
         <v>21174.3</v>
       </c>
     </row>
-    <row r="29" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -12699,14 +12767,14 @@
         <v>234.9</v>
       </c>
     </row>
-    <row r="30" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -13115,14 +13183,14 @@
         <v>202.43</v>
       </c>
     </row>
-    <row r="31" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -13531,14 +13599,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -13947,14 +14015,14 @@
         <v>1214.0899999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -14363,14 +14431,14 @@
         <v>422.3</v>
       </c>
     </row>
-    <row r="34" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -14779,14 +14847,14 @@
         <v>576.25</v>
       </c>
     </row>
-    <row r="35" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -15195,14 +15263,14 @@
         <v>9459.6299999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -15611,14 +15679,14 @@
         <v>5958.03</v>
       </c>
     </row>
-    <row r="37" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -16027,14 +16095,14 @@
         <v>3729.47</v>
       </c>
     </row>
-    <row r="38" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -16443,14 +16511,14 @@
         <v>2401.02</v>
       </c>
     </row>
-    <row r="39" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -16859,14 +16927,14 @@
         <v>1835.85</v>
       </c>
     </row>
-    <row r="40" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -17275,14 +17343,14 @@
         <v>6243.1</v>
       </c>
     </row>
-    <row r="41" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -17691,14 +17759,14 @@
         <v>672</v>
       </c>
     </row>
-    <row r="42" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -18107,14 +18175,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -18523,14 +18591,14 @@
         <v>1314.21</v>
       </c>
     </row>
-    <row r="44" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -18939,14 +19007,14 @@
         <v>869.76</v>
       </c>
     </row>
-    <row r="45" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -19355,14 +19423,14 @@
         <v>3487.69</v>
       </c>
     </row>
-    <row r="46" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -19771,14 +19839,14 @@
         <v>2969.89</v>
       </c>
     </row>
-    <row r="47" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -20187,14 +20255,14 @@
         <v>2315.98</v>
       </c>
     </row>
-    <row r="48" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -20603,14 +20671,14 @@
         <v>1598.59</v>
       </c>
     </row>
-    <row r="49" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -21019,14 +21087,14 @@
         <v>1965.85</v>
       </c>
     </row>
-    <row r="50" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -21435,14 +21503,14 @@
         <v>1446.68</v>
       </c>
     </row>
-    <row r="51" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -21851,14 +21919,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -22267,14 +22335,14 @@
         <v>2034.86</v>
       </c>
     </row>
-    <row r="53" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -22683,14 +22751,14 @@
         <v>2083.37</v>
       </c>
     </row>
-    <row r="54" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -23099,14 +23167,14 @@
         <v>3594.3</v>
       </c>
     </row>
-    <row r="55" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -23515,14 +23583,14 @@
         <v>1290.1600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -23931,14 +23999,14 @@
         <v>2113.29</v>
       </c>
     </row>
-    <row r="57" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -24347,14 +24415,14 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="58" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -24763,14 +24831,14 @@
         <v>813.33</v>
       </c>
     </row>
-    <row r="59" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -25179,14 +25247,14 @@
         <v>1123.47</v>
       </c>
     </row>
-    <row r="60" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -25595,14 +25663,14 @@
         <v>2885.66</v>
       </c>
     </row>
-    <row r="61" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -26011,14 +26079,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -26427,14 +26495,14 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -26843,14 +26911,14 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="64" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -27259,14 +27327,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -27675,14 +27743,14 @@
         <v>438.23</v>
       </c>
     </row>
-    <row r="66" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -28091,14 +28159,14 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="67" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -28507,14 +28575,14 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -28923,14 +28991,14 @@
         <v>209.91</v>
       </c>
     </row>
-    <row r="69" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -29339,14 +29407,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="70" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -29755,14 +29823,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -30171,14 +30239,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -30587,15 +30655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>180</v>
+      <c r="C73" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>171</v>
@@ -31003,15 +31071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>180</v>
+      <c r="C74" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>171</v>
@@ -31419,15 +31487,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>180</v>
+      <c r="C75" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>171</v>
@@ -31835,15 +31903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>181</v>
+      <c r="C76" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>171</v>
@@ -32251,15 +32319,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>182</v>
+      <c r="C77" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>171</v>
@@ -32667,15 +32735,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>183</v>
+      <c r="C78" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>171</v>
@@ -33083,15 +33151,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>184</v>
+      <c r="C79" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>171</v>
@@ -33499,15 +33567,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>185</v>
+      <c r="C80" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>171</v>
@@ -33915,15 +33983,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>185</v>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>171</v>
@@ -34331,15 +34399,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>186</v>
+      <c r="C82" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>171</v>
@@ -34747,15 +34815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>186</v>
+      <c r="C83" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>171</v>
@@ -35163,15 +35231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>186</v>
+      <c r="C84" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>171</v>
@@ -35579,15 +35647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>187</v>
+      <c r="C85" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>171</v>
@@ -35995,15 +36063,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>187</v>
+      <c r="C86" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>171</v>
@@ -36411,15 +36479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>188</v>
+      <c r="C87" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>171</v>
@@ -36827,15 +36895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>188</v>
+      <c r="C88" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>171</v>
@@ -37243,15 +37311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>189</v>
+      <c r="C89" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>171</v>
@@ -37659,15 +37727,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>189</v>
+      <c r="C90" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>171</v>
@@ -38075,15 +38143,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>190</v>
+      <c r="C91" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>171</v>
@@ -38491,15 +38559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>191</v>
+      <c r="C92" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>171</v>
@@ -38907,15 +38975,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>191</v>
+      <c r="C93" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>171</v>
@@ -39323,15 +39391,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>189</v>
+      <c r="C94" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>171</v>
@@ -39739,15 +39807,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>189</v>
+      <c r="C95" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>171</v>
@@ -40155,15 +40223,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>189</v>
+      <c r="C96" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>171</v>
@@ -40571,15 +40639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>189</v>
+      <c r="C97" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>171</v>
@@ -40987,15 +41055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>189</v>
+      <c r="C98" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>171</v>
@@ -41403,14 +41471,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -41819,15 +41887,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>180</v>
+      <c r="C100" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>171</v>
@@ -42235,15 +42303,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>180</v>
+      <c r="C101" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>171</v>
@@ -42651,15 +42719,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>180</v>
+      <c r="C102" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>171</v>
@@ -43067,15 +43135,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>180</v>
+      <c r="C103" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>171</v>
@@ -43483,15 +43551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>180</v>
+      <c r="C104" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>171</v>
@@ -43899,15 +43967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>180</v>
+      <c r="C105" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>171</v>
@@ -44315,15 +44383,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>180</v>
+      <c r="C106" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>171</v>
@@ -44731,15 +44799,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>180</v>
+      <c r="C107" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>171</v>
@@ -45147,15 +45215,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>180</v>
+      <c r="C108" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>171</v>
@@ -45563,15 +45631,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>180</v>
+      <c r="C109" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>171</v>
@@ -45979,15 +46047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>180</v>
+      <c r="C110" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>171</v>
@@ -46395,15 +46463,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>180</v>
+      <c r="C111" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>171</v>
@@ -46811,15 +46879,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>180</v>
+      <c r="C112" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>171</v>
@@ -47227,15 +47295,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>180</v>
+      <c r="C113" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>171</v>
@@ -47643,15 +47711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>180</v>
+      <c r="C114" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>171</v>
@@ -48059,15 +48127,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>180</v>
+      <c r="C115" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>171</v>
@@ -48475,15 +48543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>180</v>
+      <c r="C116" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>171</v>
@@ -48891,15 +48959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>180</v>
+      <c r="C117" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>171</v>
@@ -49307,15 +49375,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>180</v>
+      <c r="C118" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>171</v>
@@ -49723,15 +49791,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>180</v>
+      <c r="C119" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>171</v>
@@ -50139,15 +50207,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>180</v>
+      <c r="C120" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>171</v>
@@ -50555,15 +50623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>180</v>
+      <c r="C121" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>171</v>
@@ -50971,15 +51039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>180</v>
+      <c r="C122" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>171</v>
@@ -51387,15 +51455,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>180</v>
+      <c r="C123" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>171</v>
@@ -51803,15 +51871,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>180</v>
+      <c r="C124" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>171</v>
@@ -52219,15 +52287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>180</v>
+      <c r="C125" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>171</v>
@@ -52635,15 +52703,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>180</v>
+      <c r="C126" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>171</v>
@@ -53051,15 +53119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>180</v>
+      <c r="C127" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>171</v>
@@ -53467,15 +53535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>180</v>
+      <c r="C128" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>171</v>
@@ -53883,15 +53951,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>180</v>
+      <c r="C129" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>171</v>
@@ -54299,15 +54367,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>180</v>
+      <c r="C130" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>171</v>
@@ -54715,15 +54783,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>180</v>
+      <c r="C131" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>171</v>
@@ -55131,15 +55199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>180</v>
+      <c r="C132" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>171</v>
@@ -55547,15 +55615,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>180</v>
+      <c r="C133" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>171</v>
@@ -55963,15 +56031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>180</v>
+      <c r="C134" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>171</v>
@@ -56379,15 +56447,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>180</v>
+      <c r="C135" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>171</v>
@@ -56795,15 +56863,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>180</v>
+      <c r="C136" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>171</v>
@@ -57211,15 +57279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>180</v>
+      <c r="C137" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>171</v>
@@ -57627,7 +57695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>173</v>
       </c>
@@ -58043,7 +58111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>173</v>
       </c>
@@ -58459,7 +58527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>173</v>
       </c>
@@ -58875,7 +58943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>173</v>
       </c>
@@ -59291,7 +59359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>173</v>
       </c>
@@ -59707,7 +59775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:139" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>2</v>
       </c>
@@ -60123,7 +60191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>164</v>
       </c>
@@ -60540,7 +60608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>164</v>
       </c>
@@ -60957,7 +61025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>164</v>
       </c>
@@ -61374,7 +61442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>164</v>
       </c>
@@ -61791,7 +61859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>164</v>
       </c>
@@ -62208,7 +62276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>164</v>
       </c>
@@ -62625,7 +62693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>164</v>
       </c>
@@ -63042,7 +63110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>164</v>
       </c>
@@ -63459,7 +63527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>164</v>
       </c>
@@ -63876,7 +63944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>164</v>
       </c>
@@ -64293,7 +64361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>164</v>
       </c>
@@ -64710,7 +64778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:152" x14ac:dyDescent="0.3">
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -64859,7 +64927,7 @@
       <c r="EU155" s="4"/>
       <c r="EV155" s="4"/>
     </row>
-    <row r="156" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:152" x14ac:dyDescent="0.3">
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -65008,7 +65076,7 @@
       <c r="EU156" s="4"/>
       <c r="EV156" s="4"/>
     </row>
-    <row r="157" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:152" x14ac:dyDescent="0.3">
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -65152,452 +65220,452 @@
       <c r="EP157" s="4"/>
       <c r="EQ157" s="4"/>
     </row>
-    <row r="159" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:152" x14ac:dyDescent="0.3">
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:152" x14ac:dyDescent="0.3">
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F306" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:D143"/>
+  <autoFilter ref="B7:D143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Database/Italy_2014_SUT.xlsx
+++ b/Database/Italy_2014_SUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC240EC-A3C7-4E3E-961B-7987FD61B8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166213A-6677-4FCB-B7E4-83C140F8E16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Database/Italy_2014_SUT.xlsx
+++ b/Database/Italy_2014_SUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\COVID-19_impact_on_Italian_GDP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166213A-6677-4FCB-B7E4-83C140F8E16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE235945-F524-44C3-B835-66A5742502F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="203">
   <si>
     <t>Margins</t>
-  </si>
-  <si>
-    <t>service</t>
   </si>
   <si>
     <t>Import</t>
@@ -522,16 +519,7 @@
     <t>Gross Capital formation</t>
   </si>
   <si>
-    <t>manufacture</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>Satellite Accounts</t>
-  </si>
-  <si>
-    <t>primary</t>
   </si>
   <si>
     <t>Type</t>
@@ -603,13 +591,7 @@
     <t>Transport equipment</t>
   </si>
   <si>
-    <t>Agriculture &amp; fishing</t>
-  </si>
-  <si>
     <t>Mining</t>
-  </si>
-  <si>
-    <t>High-tech</t>
   </si>
   <si>
     <t>Other</t>
@@ -618,25 +600,49 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>Wholesale &amp; retail</t>
+    <t>Mining - commodity</t>
   </si>
   <si>
-    <t>Transport</t>
+    <t>Food, beverages &amp; tobacco - commodity</t>
   </si>
   <si>
-    <t>Leisure</t>
+    <t>Textile &amp; leather - commodity</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>Wood &amp; wood products - commodity</t>
   </si>
   <si>
-    <t>Finance &amp; Consultancy</t>
+    <t>Paper, pulp &amp; printing - commodity</t>
   </si>
   <si>
-    <t>Research &amp; Education</t>
+    <t>Chemicals - commodity</t>
   </si>
   <si>
-    <t>Health</t>
+    <t>Non-metallic minerals - commodity</t>
+  </si>
+  <si>
+    <t>Metals - commodity</t>
+  </si>
+  <si>
+    <t>Other - commodity</t>
+  </si>
+  <si>
+    <t>Machinery - commodity</t>
+  </si>
+  <si>
+    <t>Transport equipment - commodity</t>
+  </si>
+  <si>
+    <t>Utilities - commodity</t>
+  </si>
+  <si>
+    <t>Construction - commodity</t>
+  </si>
+  <si>
+    <t>Other sectors - commodity</t>
+  </si>
+  <si>
+    <t>Other sectors</t>
   </si>
 </sst>
 </file>
@@ -1544,13 +1550,13 @@
         <v>Activities</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:139" x14ac:dyDescent="0.3">
@@ -1952,13 +1958,13 @@
         <v>Activities of extraterritorial organisations and bodies</v>
       </c>
       <c r="EG2" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1967,211 +1973,211 @@
         <v>Macro Sectors</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v>primary</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>primary</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>primary</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="I3" s="1" t="str">
-        <v>primary</v>
+        <v>Mining - commodity</v>
       </c>
       <c r="J3" s="1" t="str">
-        <v>primary</v>
+        <v>Food, beverages &amp; tobacco - commodity</v>
       </c>
       <c r="K3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Textile &amp; leather - commodity</v>
       </c>
       <c r="L3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Wood &amp; wood products - commodity</v>
       </c>
       <c r="M3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Paper, pulp &amp; printing - commodity</v>
       </c>
       <c r="N3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Paper, pulp &amp; printing - commodity</v>
       </c>
       <c r="O3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Chemicals - commodity</v>
       </c>
       <c r="P3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Chemicals - commodity</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Chemicals - commodity</v>
       </c>
       <c r="R3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Non-metallic minerals - commodity</v>
       </c>
       <c r="S3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Non-metallic minerals - commodity</v>
       </c>
       <c r="T3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Metals - commodity</v>
       </c>
       <c r="U3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Metals - commodity</v>
       </c>
       <c r="V3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Other - commodity</v>
       </c>
       <c r="W3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Other - commodity</v>
       </c>
       <c r="X3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Machinery - commodity</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Transport equipment - commodity</v>
       </c>
       <c r="Z3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Transport equipment - commodity</v>
       </c>
       <c r="AA3" s="1" t="str">
-        <v>manufacture</v>
+        <v>Other - commodity</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <v>service</v>
+        <v>Other - commodity</v>
       </c>
       <c r="AC3" s="1" t="str">
-        <v>energy</v>
+        <v>Utilities - commodity</v>
       </c>
       <c r="AD3" s="1" t="str">
-        <v>service</v>
+        <v>Utilities - commodity</v>
       </c>
       <c r="AE3" s="1" t="str">
-        <v>service</v>
+        <v>Utilities - commodity</v>
       </c>
       <c r="AF3" s="1" t="str">
-        <v>service</v>
+        <v>Construction - commodity</v>
       </c>
       <c r="AG3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AH3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AI3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AL3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AM3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AN3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AO3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AP3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AQ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AR3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AS3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AT3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AU3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AV3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AW3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AX3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AY3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="AZ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BA3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BB3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BC3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BD3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BE3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BF3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BG3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BH3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BI3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BJ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BK3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BL3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BM3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BN3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BO3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BP3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BQ3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BR3" s="1" t="str">
-        <v>service</v>
+        <v>Other sectors - commodity</v>
       </c>
       <c r="BS3" s="1" t="str">
         <v>Margins</v>
       </c>
       <c r="BT3" s="1" t="str">
-        <v>Agriculture &amp; fishing</v>
+        <v>Other sectors</v>
       </c>
       <c r="BU3" s="1" t="str">
-        <v>Agriculture &amp; fishing</v>
+        <v>Other sectors</v>
       </c>
       <c r="BV3" s="1" t="str">
-        <v>Agriculture &amp; fishing</v>
+        <v>Other sectors</v>
       </c>
       <c r="BW3" s="1" t="str">
         <v>Mining</v>
@@ -2213,10 +2219,10 @@
         <v>Metals</v>
       </c>
       <c r="CJ3" s="1" t="str">
-        <v>High-tech</v>
+        <v>Other</v>
       </c>
       <c r="CK3" s="1" t="str">
-        <v>High-tech</v>
+        <v>Other</v>
       </c>
       <c r="CL3" s="1" t="str">
         <v>Machinery</v>
@@ -2231,7 +2237,7 @@
         <v>Other</v>
       </c>
       <c r="CP3" s="1" t="str">
-        <v>High-tech</v>
+        <v>Other</v>
       </c>
       <c r="CQ3" s="1" t="str">
         <v>Utilities</v>
@@ -2246,127 +2252,127 @@
         <v>Construction</v>
       </c>
       <c r="CU3" s="1" t="str">
-        <v>Wholesale &amp; retail</v>
+        <v>Other sectors</v>
       </c>
       <c r="CV3" s="1" t="str">
-        <v>Wholesale &amp; retail</v>
+        <v>Other sectors</v>
       </c>
       <c r="CW3" s="1" t="str">
-        <v>Wholesale &amp; retail</v>
+        <v>Other sectors</v>
       </c>
       <c r="CX3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="CY3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="CZ3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="DA3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="DB3" s="1" t="str">
-        <v>Transport</v>
+        <v>Other sectors</v>
       </c>
       <c r="DC3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DD3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DE3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DF3" s="1" t="str">
-        <v>IT</v>
+        <v>Other sectors</v>
       </c>
       <c r="DG3" s="1" t="str">
-        <v>IT</v>
+        <v>Other sectors</v>
       </c>
       <c r="DH3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DI3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DJ3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DK3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DL3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DM3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DN3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DO3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DP3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DQ3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DR3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="DS3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="DT3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="DU3" s="1" t="str">
-        <v>Finance &amp; Consultancy</v>
+        <v>Other sectors</v>
       </c>
       <c r="DV3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="DW3" s="1" t="str">
-        <v>Research &amp; Education</v>
+        <v>Other sectors</v>
       </c>
       <c r="DX3" s="1" t="str">
-        <v>Health</v>
+        <v>Other sectors</v>
       </c>
       <c r="DY3" s="1" t="str">
-        <v>Health</v>
+        <v>Other sectors</v>
       </c>
       <c r="DZ3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="EA3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="EB3" s="1" t="str">
-        <v>Leisure</v>
+        <v>Other sectors</v>
       </c>
       <c r="EC3" s="1" t="str">
-        <v>IT</v>
+        <v>Other sectors</v>
       </c>
       <c r="ED3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="EE3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="EF3" s="1" t="str">
-        <v>Other</v>
+        <v>Other sectors</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2771,13 +2777,13 @@
         <v>M EUR</v>
       </c>
       <c r="EG4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="EI4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3184,33 +3190,33 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -3617,16 +3623,16 @@
     </row>
     <row r="8" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -4033,16 +4039,16 @@
     </row>
     <row r="9" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -4449,16 +4455,16 @@
     </row>
     <row r="10" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -4865,16 +4871,16 @@
     </row>
     <row r="11" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -5281,16 +5287,16 @@
     </row>
     <row r="12" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -5697,16 +5703,16 @@
     </row>
     <row r="13" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -6113,16 +6119,16 @@
     </row>
     <row r="14" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -6529,16 +6535,16 @@
     </row>
     <row r="15" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -6945,16 +6951,16 @@
     </row>
     <row r="16" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -7361,16 +7367,16 @@
     </row>
     <row r="17" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
@@ -7777,16 +7783,16 @@
     </row>
     <row r="18" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -8193,16 +8199,16 @@
     </row>
     <row r="19" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F19" s="9">
         <v>0</v>
@@ -8609,16 +8615,16 @@
     </row>
     <row r="20" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
@@ -9025,16 +9031,16 @@
     </row>
     <row r="21" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F21" s="9">
         <v>0</v>
@@ -9441,16 +9447,16 @@
     </row>
     <row r="22" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
@@ -9857,16 +9863,16 @@
     </row>
     <row r="23" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
@@ -10273,16 +10279,16 @@
     </row>
     <row r="24" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
@@ -10689,16 +10695,16 @@
     </row>
     <row r="25" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
@@ -11105,16 +11111,16 @@
     </row>
     <row r="26" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="9">
         <v>0</v>
@@ -11521,16 +11527,16 @@
     </row>
     <row r="27" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F27" s="9">
         <v>0</v>
@@ -11937,16 +11943,16 @@
     </row>
     <row r="28" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F28" s="9">
         <v>0</v>
@@ -12353,16 +12359,16 @@
     </row>
     <row r="29" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
@@ -12769,16 +12775,16 @@
     </row>
     <row r="30" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F30" s="9">
         <v>0</v>
@@ -13185,16 +13191,16 @@
     </row>
     <row r="31" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -13601,16 +13607,16 @@
     </row>
     <row r="32" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -14017,16 +14023,16 @@
     </row>
     <row r="33" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F33" s="9">
         <v>0</v>
@@ -14433,16 +14439,16 @@
     </row>
     <row r="34" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
@@ -14849,16 +14855,16 @@
     </row>
     <row r="35" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
@@ -15265,16 +15271,16 @@
     </row>
     <row r="36" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F36" s="9">
         <v>0</v>
@@ -15681,16 +15687,16 @@
     </row>
     <row r="37" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F37" s="9">
         <v>0</v>
@@ -16097,16 +16103,16 @@
     </row>
     <row r="38" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -16513,16 +16519,16 @@
     </row>
     <row r="39" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -16929,16 +16935,16 @@
     </row>
     <row r="40" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -17345,16 +17351,16 @@
     </row>
     <row r="41" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F41" s="9">
         <v>0</v>
@@ -17761,16 +17767,16 @@
     </row>
     <row r="42" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F42" s="9">
         <v>0</v>
@@ -18177,16 +18183,16 @@
     </row>
     <row r="43" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F43" s="9">
         <v>0</v>
@@ -18593,16 +18599,16 @@
     </row>
     <row r="44" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F44" s="9">
         <v>0</v>
@@ -19009,16 +19015,16 @@
     </row>
     <row r="45" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -19425,16 +19431,16 @@
     </row>
     <row r="46" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -19841,16 +19847,16 @@
     </row>
     <row r="47" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -20257,16 +20263,16 @@
     </row>
     <row r="48" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F48" s="9">
         <v>0</v>
@@ -20673,16 +20679,16 @@
     </row>
     <row r="49" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -21089,16 +21095,16 @@
     </row>
     <row r="50" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F50" s="9">
         <v>0</v>
@@ -21505,16 +21511,16 @@
     </row>
     <row r="51" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F51" s="9">
         <v>0</v>
@@ -21921,16 +21927,16 @@
     </row>
     <row r="52" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -22337,16 +22343,16 @@
     </row>
     <row r="53" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
@@ -22753,16 +22759,16 @@
     </row>
     <row r="54" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F54" s="9">
         <v>0</v>
@@ -23169,16 +23175,16 @@
     </row>
     <row r="55" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F55" s="9">
         <v>0</v>
@@ -23585,16 +23591,16 @@
     </row>
     <row r="56" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F56" s="9">
         <v>0</v>
@@ -24001,16 +24007,16 @@
     </row>
     <row r="57" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F57" s="9">
         <v>0</v>
@@ -24417,16 +24423,16 @@
     </row>
     <row r="58" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -24833,16 +24839,16 @@
     </row>
     <row r="59" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F59" s="9">
         <v>0</v>
@@ -25249,16 +25255,16 @@
     </row>
     <row r="60" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F60" s="9">
         <v>0</v>
@@ -25665,16 +25671,16 @@
     </row>
     <row r="61" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F61" s="9">
         <v>0</v>
@@ -26081,16 +26087,16 @@
     </row>
     <row r="62" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -26497,16 +26503,16 @@
     </row>
     <row r="63" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
@@ -26913,16 +26919,16 @@
     </row>
     <row r="64" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -27329,16 +27335,16 @@
     </row>
     <row r="65" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F65" s="9">
         <v>0</v>
@@ -27745,16 +27751,16 @@
     </row>
     <row r="66" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
@@ -28161,16 +28167,16 @@
     </row>
     <row r="67" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -28577,16 +28583,16 @@
     </row>
     <row r="68" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F68" s="9">
         <v>0</v>
@@ -28993,16 +28999,16 @@
     </row>
     <row r="69" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -29409,16 +29415,16 @@
     </row>
     <row r="70" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -29825,16 +29831,16 @@
     </row>
     <row r="71" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -30250,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -30657,16 +30663,16 @@
     </row>
     <row r="73" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F73" s="9">
         <v>49420.160000000003</v>
@@ -31073,16 +31079,16 @@
     </row>
     <row r="74" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -31489,16 +31495,16 @@
     </row>
     <row r="75" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -31905,16 +31911,16 @@
     </row>
     <row r="76" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -32321,16 +32327,16 @@
     </row>
     <row r="77" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -32737,16 +32743,16 @@
     </row>
     <row r="78" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -33153,16 +33159,16 @@
     </row>
     <row r="79" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -33569,16 +33575,16 @@
     </row>
     <row r="80" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -33985,16 +33991,16 @@
     </row>
     <row r="81" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -34401,16 +34407,16 @@
     </row>
     <row r="82" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -34817,16 +34823,16 @@
     </row>
     <row r="83" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -35233,16 +35239,16 @@
     </row>
     <row r="84" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F84" s="9">
         <v>0</v>
@@ -35649,16 +35655,16 @@
     </row>
     <row r="85" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F85" s="9">
         <v>0</v>
@@ -36065,16 +36071,16 @@
     </row>
     <row r="86" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" s="9">
         <v>0</v>
@@ -36481,16 +36487,16 @@
     </row>
     <row r="87" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" s="9">
         <v>0</v>
@@ -36897,16 +36903,16 @@
     </row>
     <row r="88" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -37313,16 +37319,16 @@
     </row>
     <row r="89" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -37729,16 +37735,16 @@
     </row>
     <row r="90" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F90" s="9">
         <v>0</v>
@@ -38145,16 +38151,16 @@
     </row>
     <row r="91" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F91" s="9">
         <v>0</v>
@@ -38561,16 +38567,16 @@
     </row>
     <row r="92" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F92" s="9">
         <v>0</v>
@@ -38977,16 +38983,16 @@
     </row>
     <row r="93" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F93" s="9">
         <v>0</v>
@@ -39393,16 +39399,16 @@
     </row>
     <row r="94" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -39809,16 +39815,16 @@
     </row>
     <row r="95" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F95" s="9">
         <v>0</v>
@@ -40225,16 +40231,16 @@
     </row>
     <row r="96" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F96" s="9">
         <v>0</v>
@@ -40641,16 +40647,16 @@
     </row>
     <row r="97" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F97" s="9">
         <v>0</v>
@@ -41057,16 +41063,16 @@
     </row>
     <row r="98" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F98" s="9">
         <v>0</v>
@@ -41473,16 +41479,16 @@
     </row>
     <row r="99" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -41889,16 +41895,16 @@
     </row>
     <row r="100" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F100" s="9">
         <v>0</v>
@@ -42305,16 +42311,16 @@
     </row>
     <row r="101" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F101" s="9">
         <v>710.32</v>
@@ -42721,16 +42727,16 @@
     </row>
     <row r="102" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F102" s="9">
         <v>202.56</v>
@@ -43137,16 +43143,16 @@
     </row>
     <row r="103" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F103" s="9">
         <v>0</v>
@@ -43553,16 +43559,16 @@
     </row>
     <row r="104" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F104" s="9">
         <v>0</v>
@@ -43969,16 +43975,16 @@
     </row>
     <row r="105" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F105" s="9">
         <v>0</v>
@@ -44385,16 +44391,16 @@
     </row>
     <row r="106" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -44801,16 +44807,16 @@
     </row>
     <row r="107" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F107" s="9">
         <v>0</v>
@@ -45217,16 +45223,16 @@
     </row>
     <row r="108" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F108" s="9">
         <v>0</v>
@@ -45633,16 +45639,16 @@
     </row>
     <row r="109" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F109" s="9">
         <v>0</v>
@@ -46049,16 +46055,16 @@
     </row>
     <row r="110" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F110" s="9">
         <v>0</v>
@@ -46465,16 +46471,16 @@
     </row>
     <row r="111" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F111" s="9">
         <v>0</v>
@@ -46881,16 +46887,16 @@
     </row>
     <row r="112" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -47297,16 +47303,16 @@
     </row>
     <row r="113" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F113" s="9">
         <v>0</v>
@@ -47713,16 +47719,16 @@
     </row>
     <row r="114" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F114" s="9">
         <v>0</v>
@@ -48129,16 +48135,16 @@
     </row>
     <row r="115" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F115" s="9">
         <v>0</v>
@@ -48545,16 +48551,16 @@
     </row>
     <row r="116" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F116" s="9">
         <v>0</v>
@@ -48961,16 +48967,16 @@
     </row>
     <row r="117" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F117" s="9">
         <v>0</v>
@@ -49377,16 +49383,16 @@
     </row>
     <row r="118" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F118" s="9">
         <v>0</v>
@@ -49793,16 +49799,16 @@
     </row>
     <row r="119" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F119" s="9">
         <v>0</v>
@@ -50209,16 +50215,16 @@
     </row>
     <row r="120" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F120" s="9">
         <v>0</v>
@@ -50625,16 +50631,16 @@
     </row>
     <row r="121" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F121" s="9">
         <v>0</v>
@@ -51041,16 +51047,16 @@
     </row>
     <row r="122" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F122" s="9">
         <v>0</v>
@@ -51457,16 +51463,16 @@
     </row>
     <row r="123" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -51873,16 +51879,16 @@
     </row>
     <row r="124" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F124" s="9">
         <v>0</v>
@@ -52289,16 +52295,16 @@
     </row>
     <row r="125" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F125" s="9">
         <v>0</v>
@@ -52705,16 +52711,16 @@
     </row>
     <row r="126" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F126" s="9">
         <v>0</v>
@@ -53121,16 +53127,16 @@
     </row>
     <row r="127" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F127" s="9">
         <v>0</v>
@@ -53537,16 +53543,16 @@
     </row>
     <row r="128" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F128" s="9">
         <v>0</v>
@@ -53953,16 +53959,16 @@
     </row>
     <row r="129" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F129" s="9">
         <v>0</v>
@@ -54369,16 +54375,16 @@
     </row>
     <row r="130" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -54785,16 +54791,16 @@
     </row>
     <row r="131" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F131" s="9">
         <v>2.56</v>
@@ -55201,16 +55207,16 @@
     </row>
     <row r="132" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F132" s="9">
         <v>0</v>
@@ -55617,16 +55623,16 @@
     </row>
     <row r="133" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F133" s="9">
         <v>0</v>
@@ -56033,16 +56039,16 @@
     </row>
     <row r="134" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F134" s="9">
         <v>0</v>
@@ -56449,16 +56455,16 @@
     </row>
     <row r="135" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F135" s="9">
         <v>0</v>
@@ -56865,16 +56871,16 @@
     </row>
     <row r="136" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F136" s="9">
         <v>0</v>
@@ -57281,16 +57287,16 @@
     </row>
     <row r="137" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F137" s="9">
         <v>0</v>
@@ -57697,16 +57703,16 @@
     </row>
     <row r="138" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F138" s="9">
         <v>0</v>
@@ -58113,16 +58119,16 @@
     </row>
     <row r="139" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F139" s="9">
         <v>0</v>
@@ -58529,16 +58535,16 @@
     </row>
     <row r="140" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F140" s="9">
         <v>0</v>
@@ -58945,16 +58951,16 @@
     </row>
     <row r="141" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F141" s="9">
         <v>0</v>
@@ -59361,16 +59367,16 @@
     </row>
     <row r="142" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -59777,16 +59783,16 @@
     </row>
     <row r="143" spans="1:139" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F143" s="9">
         <v>12367.44</v>
@@ -60193,16 +60199,16 @@
     </row>
     <row r="144" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="9">
@@ -60610,16 +60616,16 @@
     </row>
     <row r="145" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="9">
@@ -61027,16 +61033,16 @@
     </row>
     <row r="146" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="9">
@@ -61444,16 +61450,16 @@
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="9">
@@ -61861,16 +61867,16 @@
     </row>
     <row r="148" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="9">
@@ -62278,16 +62284,16 @@
     </row>
     <row r="149" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="9">
@@ -62695,16 +62701,16 @@
     </row>
     <row r="150" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="9">
@@ -63112,16 +63118,16 @@
     </row>
     <row r="151" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="9">
@@ -63529,16 +63535,16 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="9">
@@ -63946,16 +63952,16 @@
     </row>
     <row r="153" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="9">
@@ -64363,16 +64369,16 @@
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="9">
